--- a/database/games.xlsx
+++ b/database/games.xlsx
@@ -346,10 +346,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -380,134 +380,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Kfir</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="n">
-        <v>866</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Kfir</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>550</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Kfir</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>250</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Kfir</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1058</v>
-      </c>
-      <c r="D5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Kfir</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>350</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Kfir</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>250</v>
-      </c>
-      <c r="D7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Kfir</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>831</v>
-      </c>
-      <c r="D8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Kfir</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1986</v>
-      </c>
-      <c r="D9" t="n">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/database/games.xlsx
+++ b/database/games.xlsx
@@ -346,16 +346,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col bestFit="1" customWidth="1" max="3" min="3" width="11.7109375"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" width="11.140625"/>
+    <col customWidth="1" max="4" min="4" width="11.7109375"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" width="11.140625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -376,8 +377,70 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>total_time</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>max_streak</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Kfir</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>162</v>
+      </c>
+      <c r="D2" t="n">
+        <v>33</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Kfir</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>169</v>
+      </c>
+      <c r="D3" t="n">
+        <v>68</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Kfir</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2243</v>
+      </c>
+      <c r="D4" t="n">
+        <v>211</v>
+      </c>
+      <c r="E4" t="n">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
